--- a/laravel/public/schedule/test2.xlsx
+++ b/laravel/public/schedule/test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ntmt2\NTMT\laravel\public\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAE0402-C321-4ECE-8A46-A5BEEC449C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D228B-AB84-4319-9B0C-7472FEF89270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Группа</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Христова</t>
+  </si>
+  <si>
+    <t>TO-11901</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -393,16 +396,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,9 +422,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -436,9 +439,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -453,9 +456,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -470,9 +473,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -487,7 +490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -504,7 +507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -521,7 +524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>2</v>
@@ -536,7 +539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9">
         <v>3</v>
@@ -551,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10">
         <v>4</v>

--- a/laravel/public/schedule/test2.xlsx
+++ b/laravel/public/schedule/test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ntmt2\NTMT\laravel\public\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\NTMT\laravel\public\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D228B-AB84-4319-9B0C-7472FEF89270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFFF984-1FDA-470F-AFDB-7997A2B0B6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Группа</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>ФИО Преподавателя</t>
-  </si>
-  <si>
-    <t>ТО-11901</t>
   </si>
   <si>
     <t>Физика</t>
@@ -76,10 +73,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,12 +113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,16 +397,17 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,75 +424,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>312</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>654</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -507,72 +509,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>654</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:A10"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/laravel/public/schedule/test2.xlsx
+++ b/laravel/public/schedule/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\NTMT\laravel\public\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFFF984-1FDA-470F-AFDB-7997A2B0B6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DB7975-9534-4FCD-A8A0-777C7EA4C144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Группа</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>TO-11901</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
 </sst>
 </file>
@@ -108,12 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -394,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,9 +409,10 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +428,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -440,8 +448,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -457,8 +468,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -474,8 +488,11 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -491,8 +508,11 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -508,8 +528,11 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -525,8 +548,11 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -542,8 +568,11 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -559,8 +588,11 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -575,6 +607,9 @@
       </c>
       <c r="E10" t="s">
         <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44857</v>
       </c>
     </row>
   </sheetData>
